--- a/صيدليات دكتور مصطفي طلعت_2026-01-11_22-06.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-11_22-06.xlsx
@@ -230,6 +230,12 @@
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -239,6 +245,9 @@
     <t>0:24</t>
   </si>
   <si>
+    <t>NODY NASAL SPRAY</t>
+  </si>
+  <si>
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
   </si>
   <si>
@@ -296,6 +305,9 @@
     <t>THROMBEXX DNA 1120 I.U/100GM TOPICAL GEL 40 GM</t>
   </si>
   <si>
+    <t>TOBRADEX EYE OINT. 3.5 GM</t>
+  </si>
+  <si>
     <t>TRYPSALIN 20 TABS</t>
   </si>
   <si>
@@ -372,9 +384,6 @@
   </si>
   <si>
     <t>فرشه اسنان SENSODYNE</t>
-  </si>
-  <si>
-    <t>3:0</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -2268,17 +2277,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2286,7 +2295,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2294,17 +2303,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2320,17 +2329,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2338,7 +2347,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2346,17 +2355,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>540</v>
+        <v>110</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2364,7 +2373,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2372,17 +2381,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2398,17 +2407,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>20</v>
+        <v>540</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2424,17 +2433,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>136.16</v>
+        <v>48</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2442,7 +2451,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2450,17 +2459,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2468,7 +2477,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2476,17 +2485,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>180</v>
+        <v>136.16</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2494,7 +2503,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2502,13 +2511,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2528,17 +2537,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2554,17 +2563,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2572,7 +2581,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2580,17 +2589,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2598,7 +2607,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2606,17 +2615,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2624,7 +2633,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2632,13 +2641,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2650,7 +2659,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2658,13 +2667,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2676,7 +2685,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2684,17 +2693,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2702,7 +2711,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2716,11 +2725,11 @@
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2728,7 +2737,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2736,13 +2745,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2754,7 +2763,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2762,13 +2771,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2788,13 +2797,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>30.07</v>
+        <v>77</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -2806,7 +2815,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2814,17 +2823,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2832,7 +2841,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2840,17 +2849,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2872,7 +2881,7 @@
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>26</v>
+        <v>30.07</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -2892,17 +2901,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2910,7 +2919,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2918,13 +2927,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>2.5</v>
+        <v>70</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -2936,7 +2945,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2944,17 +2953,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2962,7 +2971,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2970,17 +2979,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -2996,13 +3005,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>45</v>
+        <v>2.5</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -3014,7 +3023,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3022,17 +3031,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3040,7 +3049,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3048,17 +3057,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3074,17 +3083,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>57.600000000000001</v>
+        <v>45</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>115</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3092,7 +3101,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3100,17 +3109,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>3.98</v>
+        <v>30</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3118,7 +3127,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3126,17 +3135,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3144,7 +3153,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3152,17 +3161,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>40</v>
+        <v>57.600000000000001</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>11</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3170,7 +3179,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3178,13 +3187,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>70</v>
+        <v>3.98</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3196,7 +3205,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3204,13 +3213,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3230,13 +3239,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
@@ -3256,17 +3265,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3282,13 +3291,13 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>69.299999999999997</v>
+        <v>65</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
@@ -3308,13 +3317,13 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>44.549999999999997</v>
+        <v>15</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
@@ -3334,7 +3343,7 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
@@ -3360,13 +3369,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>20</v>
+        <v>69.299999999999997</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3386,13 +3395,13 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>35</v>
+        <v>44.549999999999997</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
@@ -3418,11 +3427,11 @@
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>121</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3438,51 +3447,129 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="99" ht="25.5" customHeight="1">
-      <c r="K99" s="10">
-        <v>6728.2200000000003</v>
-      </c>
-      <c r="L99" s="10"/>
-      <c r="M99" s="10"/>
-      <c r="N99" s="10"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="11">
+    <row r="99" ht="24.75" customHeight="1">
+      <c r="A99" s="6">
+        <v>96</v>
+      </c>
+      <c t="s" r="B99" s="7">
         <v>131</v>
       </c>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c t="s" r="F100" s="12">
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c t="s" r="H99" s="8">
+        <v>74</v>
+      </c>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="9">
+        <v>35</v>
+      </c>
+      <c r="M99" s="9"/>
+      <c t="s" r="N99" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" ht="25.5" customHeight="1">
+      <c r="A100" s="6">
+        <v>97</v>
+      </c>
+      <c t="s" r="B100" s="7">
         <v>132</v>
       </c>
-      <c r="G100" s="12"/>
-      <c r="H100" s="13"/>
-      <c t="s" r="I100" s="14">
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c t="s" r="H100" s="8">
+        <v>44</v>
+      </c>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="9">
+        <v>105</v>
+      </c>
+      <c r="M100" s="9"/>
+      <c t="s" r="N100" s="7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101" ht="24.75" customHeight="1">
+      <c r="A101" s="6">
+        <v>98</v>
+      </c>
+      <c t="s" r="B101" s="7">
         <v>133</v>
       </c>
-      <c r="J100" s="14"/>
-      <c r="K100" s="14"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="14"/>
-      <c r="N100" s="14"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c t="s" r="H101" s="8">
+        <v>100</v>
+      </c>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="9">
+        <v>30</v>
+      </c>
+      <c r="M101" s="9"/>
+      <c t="s" r="N101" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" ht="26.25" customHeight="1">
+      <c r="K102" s="10">
+        <v>6951.2200000000003</v>
+      </c>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="11">
+        <v>134</v>
+      </c>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c t="s" r="F103" s="12">
+        <v>135</v>
+      </c>
+      <c r="G103" s="12"/>
+      <c r="H103" s="13"/>
+      <c t="s" r="I103" s="14">
+        <v>136</v>
+      </c>
+      <c r="J103" s="14"/>
+      <c r="K103" s="14"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="14"/>
+      <c r="N103" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="296">
+  <mergeCells count="305">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3775,10 +3862,19 @@
     <mergeCell ref="B98:G98"/>
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
-    <mergeCell ref="K99:N99"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="I100:N100"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="K102:N102"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="I103:N103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
